--- a/Tests/FileREader_Tests/Test1.xlsx
+++ b/Tests/FileREader_Tests/Test1.xlsx
@@ -13,17 +13,6 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -361,45 +350,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>1</v>
       </c>
       <c r="B1" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>3.97</v>
       </c>
       <c r="D2" s="1">
-        <v>3.97</v>
-      </c>
-      <c r="E2" s="1">
         <v>4</v>
       </c>
     </row>
